--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3993.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3993.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3993</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mohammed Shami Ahmed</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3457</t>
+          <t>3457</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -544,7 +609,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>15/01/2013</t>
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3461</t>
+          <t>3461</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -592,7 +656,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>19/01/2013</t>
@@ -600,7 +663,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3463</t>
+          <t>3463</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -640,7 +703,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>23/01/2013</t>
@@ -648,7 +710,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3468</t>
+          <t>3468</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -700,7 +762,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3470</t>
+          <t>3470</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -752,7 +814,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3524</t>
+          <t>3524</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -792,7 +854,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>24/07/2013</t>
@@ -800,7 +861,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3537</t>
+          <t>3537</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -852,7 +913,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3539</t>
+          <t>3539</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -892,7 +953,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>28/07/2013</t>
@@ -900,7 +960,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3541</t>
+          <t>3541</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -940,7 +1000,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>01/08/2013</t>
@@ -948,7 +1007,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3544</t>
+          <t>3544</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -988,7 +1047,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>03/08/2013</t>
@@ -996,7 +1054,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3545</t>
+          <t>3545</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1036,7 +1094,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>23/10/2013</t>
@@ -1044,7 +1101,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3565</t>
+          <t>3565</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1084,7 +1141,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>30/10/2013</t>
@@ -1092,7 +1148,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3568</t>
+          <t>3568</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1132,7 +1188,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>02/11/2013</t>
@@ -1140,7 +1195,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3572</t>
+          <t>3572</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1180,7 +1235,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>21/11/2013</t>
@@ -1188,7 +1242,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3580</t>
+          <t>3580</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1228,7 +1282,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>24/11/2013</t>
@@ -1236,7 +1289,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3581</t>
+          <t>3581</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1276,7 +1329,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>27/11/2013</t>
@@ -1284,7 +1336,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3583</t>
+          <t>3583</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1336,7 +1388,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3586</t>
+          <t>3586</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1388,7 +1440,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3587</t>
+          <t>3587</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1428,7 +1480,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>11/12/2013</t>
@@ -1436,7 +1487,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3588</t>
+          <t>3588</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1488,7 +1539,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3601</t>
+          <t>3601</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1540,7 +1591,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3603</t>
+          <t>3603</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1592,7 +1643,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3607</t>
+          <t>3607</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1632,7 +1683,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>28/01/2014</t>
@@ -1640,7 +1690,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3609</t>
+          <t>3609</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1692,7 +1742,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3612</t>
+          <t>3612</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1732,7 +1782,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>26/02/2014</t>
@@ -1740,7 +1789,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3619</t>
+          <t>3619</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1792,7 +1841,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3621</t>
+          <t>3621</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1844,7 +1893,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3624</t>
+          <t>3624</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1884,7 +1933,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>05/03/2014</t>
@@ -1892,7 +1940,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3628</t>
+          <t>3628</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1932,7 +1980,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>27/08/2014</t>
@@ -1940,7 +1987,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3664</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1980,7 +2027,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>30/08/2014</t>
@@ -1988,7 +2034,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3667</t>
+          <t>3667</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2028,7 +2074,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>02/09/2014</t>
@@ -2036,7 +2081,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3670</t>
+          <t>3670</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2088,7 +2133,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3672</t>
+          <t>3672</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2140,7 +2185,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3678</t>
+          <t>3678</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2192,7 +2237,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3680</t>
+          <t>3680</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2232,7 +2277,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>17/10/2014</t>
@@ -2240,7 +2284,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3683</t>
+          <t>3683</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2292,7 +2336,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3731</t>
+          <t>3731</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2344,7 +2388,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3735</t>
+          <t>3735</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2384,7 +2428,6 @@
           <t>39</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>26/01/2015</t>
@@ -2392,7 +2435,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3741</t>
+          <t>3741</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2444,7 +2487,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3744</t>
+          <t>3744</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2496,7 +2539,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3751</t>
+          <t>3751</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2548,7 +2591,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3760</t>
+          <t>3760</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2588,7 +2631,6 @@
           <t>43</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>06/03/2015</t>
@@ -2596,7 +2638,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3775</t>
+          <t>3775</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2636,7 +2678,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>10/03/2015</t>
@@ -2644,7 +2685,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3781</t>
+          <t>3781</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2684,7 +2725,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>14/03/2015</t>
@@ -2692,7 +2732,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3786</t>
+          <t>3786</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2732,7 +2772,6 @@
           <t>46</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>19/03/2015</t>
@@ -2740,7 +2779,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3791</t>
+          <t>3791</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2792,7 +2831,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3795</t>
+          <t>3795</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2844,7 +2883,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4056</t>
+          <t>4056</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2884,7 +2923,6 @@
           <t>49</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>06/07/2017</t>
@@ -2892,7 +2930,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4057</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2944,7 +2982,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4074</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2984,7 +3022,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>21/10/2018</t>
@@ -2992,7 +3029,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4213</t>
+          <t>4213</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3044,7 +3081,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4216</t>
+          <t>4216</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3096,7 +3133,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4234</t>
+          <t>4234</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3136,7 +3173,6 @@
           <t>54</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>15/01/2019</t>
@@ -3144,7 +3180,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4235</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3184,7 +3220,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>18/01/2019</t>
@@ -3192,7 +3227,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4236</t>
+          <t>4236</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3232,7 +3267,6 @@
           <t>56</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>23/01/2019</t>
@@ -3240,7 +3274,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4239</t>
+          <t>4239</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3280,7 +3314,6 @@
           <t>57</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>26/01/2019</t>
@@ -3288,7 +3321,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4242</t>
+          <t>4242</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3328,7 +3361,6 @@
           <t>58</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>28/01/2019</t>
@@ -3336,7 +3368,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4245</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3388,7 +3420,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4249</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3428,7 +3460,6 @@
           <t>60</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>02/03/2019</t>
@@ -3436,7 +3467,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4258</t>
+          <t>4258</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3488,7 +3519,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4263</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3540,7 +3571,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4266</t>
+          <t>4266</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3592,7 +3623,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4270</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3644,7 +3675,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4332</t>
+          <t>4332</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3696,7 +3727,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4338</t>
+          <t>4338</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3736,7 +3767,6 @@
           <t>66</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>30/06/2019</t>
@@ -3744,7 +3774,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4342</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3796,7 +3826,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4345</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3836,7 +3866,6 @@
           <t>68</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>08/08/2019</t>
@@ -3844,7 +3873,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4359</t>
+          <t>4359</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3896,7 +3925,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4360</t>
+          <t>4360</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3936,7 +3965,6 @@
           <t>70</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>14/08/2019</t>
@@ -3944,7 +3972,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4362</t>
+          <t>4362</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3996,7 +4024,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4385</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4036,7 +4064,6 @@
           <t>72</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>18/12/2019</t>
@@ -4044,7 +4071,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4387</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4084,7 +4111,6 @@
           <t>73</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>22/12/2019</t>
@@ -4092,7 +4118,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4388</t>
+          <t>4388</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4144,7 +4170,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4398</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4196,7 +4222,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4399</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4236,7 +4262,6 @@
           <t>76</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>19/01/2020</t>
@@ -4244,7 +4269,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4400</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4284,7 +4309,6 @@
           <t>77</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
           <t>05/02/2020</t>
@@ -4292,7 +4316,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4402</t>
+          <t>4402</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4344,7 +4368,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4435</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4396,7 +4420,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4436</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4436,7 +4460,6 @@
           <t>80</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>12/07/2022</t>
@@ -4444,7 +4467,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4609</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4496,7 +4519,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4613</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4536,7 +4559,6 @@
           <t>82</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>17/07/2022</t>
@@ -4544,7 +4566,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4618</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4596,7 +4618,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4687</t>
+          <t>4687</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4636,7 +4658,6 @@
           <t>84</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
           <t>12/01/2023</t>
@@ -4644,7 +4665,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4689</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4684,7 +4705,6 @@
           <t>85</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>15/01/2023</t>
@@ -4692,7 +4712,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4691</t>
+          <t>4691</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4744,7 +4764,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4692</t>
+          <t>4692</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4784,7 +4804,6 @@
           <t>87</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>21/01/2023</t>
@@ -4792,7 +4811,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4695</t>
+          <t>4695</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4832,7 +4851,6 @@
           <t>88</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
           <t>17/03/2023</t>
@@ -4840,7 +4858,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4725</t>
+          <t>4725</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4892,7 +4910,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4728</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4944,7 +4962,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4732</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4983,7 +5001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5005,7 +5023,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -5042,7 +5060,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3457</t>
+          <t>3457</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5079,7 +5097,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3461</t>
+          <t>3461</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -5116,7 +5134,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3463</t>
+          <t>3463</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -5153,7 +5171,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3468</t>
+          <t>3468</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -5190,7 +5208,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3470</t>
+          <t>3470</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -5227,7 +5245,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3524</t>
+          <t>3524</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -5264,7 +5282,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3537</t>
+          <t>3537</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -5301,7 +5319,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3539</t>
+          <t>3539</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -5338,7 +5356,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3541</t>
+          <t>3541</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -5375,7 +5393,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3544</t>
+          <t>3544</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -5412,7 +5430,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3545</t>
+          <t>3545</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -5449,7 +5467,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3565</t>
+          <t>3565</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -5486,7 +5504,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3568</t>
+          <t>3568</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5523,7 +5541,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3572</t>
+          <t>3572</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -5560,7 +5578,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3580</t>
+          <t>3580</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5597,7 +5615,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3581</t>
+          <t>3581</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -5634,7 +5652,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3583</t>
+          <t>3583</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5671,7 +5689,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3586</t>
+          <t>3586</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5708,7 +5726,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3587</t>
+          <t>3587</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -5745,7 +5763,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3588</t>
+          <t>3588</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -5782,7 +5800,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3601</t>
+          <t>3601</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5819,7 +5837,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3603</t>
+          <t>3603</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5856,7 +5874,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3607</t>
+          <t>3607</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5893,7 +5911,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3609</t>
+          <t>3609</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5930,7 +5948,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3612</t>
+          <t>3612</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5967,7 +5985,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3619</t>
+          <t>3619</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -6004,7 +6022,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3621</t>
+          <t>3621</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -6041,7 +6059,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3624</t>
+          <t>3624</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6078,7 +6096,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3628</t>
+          <t>3628</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6115,7 +6133,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3664</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6152,7 +6170,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3667</t>
+          <t>3667</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6189,7 +6207,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3670</t>
+          <t>3670</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6226,7 +6244,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3672</t>
+          <t>3672</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -6263,7 +6281,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3678</t>
+          <t>3678</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -6300,7 +6318,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3680</t>
+          <t>3680</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -6337,7 +6355,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3683</t>
+          <t>3683</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -6374,7 +6392,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3731</t>
+          <t>3731</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -6411,7 +6429,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3735</t>
+          <t>3735</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -6448,7 +6466,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3744</t>
+          <t>3744</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -6485,7 +6503,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3751</t>
+          <t>3751</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -6522,7 +6540,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3760</t>
+          <t>3760</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -6559,7 +6577,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3775</t>
+          <t>3775</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -6596,7 +6614,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3781</t>
+          <t>3781</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -6633,7 +6651,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3786</t>
+          <t>3786</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6670,7 +6688,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3791</t>
+          <t>3791</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6707,7 +6725,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3795</t>
+          <t>3795</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6744,7 +6762,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4056</t>
+          <t>4056</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6781,7 +6799,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4057</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6818,7 +6836,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4074</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6855,7 +6873,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4213</t>
+          <t>4213</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6892,7 +6910,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4216</t>
+          <t>4216</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6929,7 +6947,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4234</t>
+          <t>4234</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6966,7 +6984,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4235</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -7003,7 +7021,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4236</t>
+          <t>4236</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -7040,7 +7058,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4239</t>
+          <t>4239</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -7077,7 +7095,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4242</t>
+          <t>4242</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -7114,7 +7132,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4245</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -7151,7 +7169,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4249</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -7188,7 +7206,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4258</t>
+          <t>4258</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -7225,7 +7243,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4263</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -7262,7 +7280,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4266</t>
+          <t>4266</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -7299,7 +7317,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4270</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -7336,7 +7354,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4332</t>
+          <t>4332</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -7373,7 +7391,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4338</t>
+          <t>4338</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -7410,7 +7428,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4342</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -7447,7 +7465,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4345</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -7484,7 +7502,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4359</t>
+          <t>4359</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -7521,7 +7539,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4360</t>
+          <t>4360</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -7558,7 +7576,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4362</t>
+          <t>4362</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -7595,7 +7613,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4385</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -7632,7 +7650,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4387</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -7669,7 +7687,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4388</t>
+          <t>4388</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -7706,7 +7724,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4398</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -7743,7 +7761,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4399</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -7780,7 +7798,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4400</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -7817,7 +7835,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4402</t>
+          <t>4402</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -7854,7 +7872,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4435</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -7891,7 +7909,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4436</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -7928,7 +7946,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4609</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -7965,7 +7983,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4613</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -8002,7 +8020,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4618</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -8039,7 +8057,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4687</t>
+          <t>4687</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -8076,7 +8094,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4689</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -8113,7 +8131,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4691</t>
+          <t>4691</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -8150,7 +8168,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4692</t>
+          <t>4692</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -8187,7 +8205,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4695</t>
+          <t>4695</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -8224,7 +8242,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4725</t>
+          <t>4725</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -8261,7 +8279,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4728</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -8298,7 +8316,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4732</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -8326,6 +8344,453 @@
           <t>0/37</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4385</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4387</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4388</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3.92%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.29%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4402</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>15.75%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4687</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4691</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>5.65%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3993.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3993.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8402,15 +8403,385 @@
           <t>4385</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4387</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4388</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3.92%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.29%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4402</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>15.75%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4687</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4691</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>5.65%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4385</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -8418,15 +8789,14 @@
           <t>4387</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>9</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -8436,15 +8806,14 @@
           <t>4388</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>9</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -8454,29 +8823,12 @@
           <t>4398</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.92%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -8484,27 +8836,14 @@
           <t>4399</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>8</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.29%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -8514,15 +8853,14 @@
           <t>4400</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -8534,13 +8872,6 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8550,13 +8881,6 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8566,13 +8890,6 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8580,15 +8897,14 @@
           <t>4609</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -8598,27 +8914,14 @@
           <t>4613</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>8</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>15.75%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -8628,17 +8931,12 @@
           <t>4618</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>8</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8648,13 +8946,6 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8662,17 +8953,12 @@
           <t>4689</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>9</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8682,13 +8968,6 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8698,13 +8977,6 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8712,15 +8984,14 @@
           <t>4695</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -8730,23 +9001,14 @@
           <t>4725</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>10</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -8756,29 +9018,12 @@
           <t>4728</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>5.65%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8786,11 +9031,12 @@
           <t>4732</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3993.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3993.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1493,7 +1492,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -3879,7 +3878,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -8403,6 +8402,10 @@
           <t>4385</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8418,6 +8421,9 @@
       <c r="B3" t="n">
         <v>9</v>
       </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8433,6 +8439,9 @@
       <c r="B4" t="n">
         <v>9</v>
       </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8508,6 +8517,9 @@
       <c r="B7" t="n">
         <v>8</v>
       </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8520,6 +8532,10 @@
           <t>4402</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8532,6 +8548,10 @@
           <t>4435</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8544,6 +8564,10 @@
           <t>4436</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8559,6 +8583,9 @@
       <c r="B11" t="n">
         <v>8</v>
       </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8604,6 +8631,9 @@
       <c r="B13" t="n">
         <v>8</v>
       </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8616,6 +8646,10 @@
           <t>4687</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8631,6 +8665,9 @@
       <c r="B15" t="n">
         <v>9</v>
       </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8643,6 +8680,10 @@
           <t>4691</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8655,6 +8696,10 @@
           <t>4692</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8670,6 +8715,9 @@
       <c r="B18" t="n">
         <v>10</v>
       </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>YES</t>
@@ -8695,6 +8743,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8737,306 +8786,11 @@
           <t>4732</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4385</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4387</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4388</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4398</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4399</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4400</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4402</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4435</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4436</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4609</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4613</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4618</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4687</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4689</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4691</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4692</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4695</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4725</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4728</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4732</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3993.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3993.xlsx
@@ -8356,7 +8356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8399,12 +8399,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4385</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>3457</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
@@ -8415,11 +8425,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4387</t>
+          <t>3461</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -8433,15 +8443,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4388</t>
+          <t>3463</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8451,7 +8473,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4398</t>
+          <t>3468</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -8459,7 +8481,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -8467,11 +8489,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.92%</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8481,27 +8499,13 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4399</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.29%</t>
-        </is>
-      </c>
+          <t>3470</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8511,12 +8515,10 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4400</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>8</v>
-      </c>
+          <t>3524</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
@@ -8529,10 +8531,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4402</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>3537</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
@@ -8545,10 +8549,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4435</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>3539</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -8561,10 +8567,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4436</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>3541</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -8577,12 +8585,10 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4609</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
+          <t>3544</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -8595,27 +8601,13 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4613</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>15.75%</t>
-        </is>
-      </c>
+          <t>3545</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8625,11 +8617,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4618</t>
+          <t>3565</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -8643,7 +8635,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4687</t>
+          <t>3568</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -8659,12 +8651,10 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4689</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
+          <t>3572</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
@@ -8677,10 +8667,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4691</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
+          <t>3580</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
@@ -8693,7 +8685,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4692</t>
+          <t>3581</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -8709,40 +8701,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4695</t>
+          <t>3583</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5.48%</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4725</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>3586</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
@@ -8753,7 +8747,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4728</t>
+          <t>3587</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -8761,17 +8755,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.65%</t>
+          <t>0.36%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -8783,14 +8777,1430 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>3588</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.64%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3601</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>11</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3603</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>6.48%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3607</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3609</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3612</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3619</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3621</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3624</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>10</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3628</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>9</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.38%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3664</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>10</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3667</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3670</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>10</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.65%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3672</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3678</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>11</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>12.50%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3680</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>9</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1.00%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3683</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>9</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1.30%</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3731</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>10</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3735</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>9</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3741</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>3744</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>9</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>3751</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>9</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0.43%</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>3760</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>3775</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3781</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>8</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>3786</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>10</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3791</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>3795</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>10</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>4056</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4057</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>10</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0.40%</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4074</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>4213</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>10</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0.80%</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>4216</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>10</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2.85%</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>4234</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>9</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1.27%</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>4235</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>4236</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>8</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>4239</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>9</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>4242</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>9</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0.32%</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>4245</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>4249</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>9</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1.08%</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>4258</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>4263</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>4266</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>9</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>4270</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>9</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>4332</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>9</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>3.92%</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>4338</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>8</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0.29%</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>8</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4345</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>4360</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>4362</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>8</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>4385</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>8</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>15.75%</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4387</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>8</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>4388</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>9</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>4402</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>10</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>10</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>10</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>5.65%</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>4687</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>4691</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
           <t>4732</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
